--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H2">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.041396333333334</v>
+        <v>7.581522333333333</v>
       </c>
       <c r="N2">
-        <v>21.124189</v>
+        <v>22.744567</v>
       </c>
       <c r="O2">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="P2">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="Q2">
-        <v>703.3163321498511</v>
+        <v>298.8000064619716</v>
       </c>
       <c r="R2">
-        <v>6329.846989348659</v>
+        <v>2689.200058157744</v>
       </c>
       <c r="S2">
-        <v>0.2274574161309267</v>
+        <v>0.1212784796852091</v>
       </c>
       <c r="T2">
-        <v>0.2274574161309267</v>
+        <v>0.1212784796852091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H3">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.618978</v>
       </c>
       <c r="O3">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="P3">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="Q3">
-        <v>153.785911745102</v>
+        <v>60.68045420463289</v>
       </c>
       <c r="R3">
-        <v>1384.073205705918</v>
+        <v>546.124087841696</v>
       </c>
       <c r="S3">
-        <v>0.04973543841354552</v>
+        <v>0.02462929408765742</v>
       </c>
       <c r="T3">
-        <v>0.04973543841354552</v>
+        <v>0.02462929408765741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H4">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546594666666667</v>
+        <v>3.546594666666666</v>
       </c>
       <c r="N4">
         <v>10.639784</v>
       </c>
       <c r="O4">
-        <v>0.2924387304372314</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="P4">
-        <v>0.2924387304372315</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="Q4">
-        <v>354.244788178456</v>
+        <v>139.7770081951431</v>
       </c>
       <c r="R4">
-        <v>3188.203093606104</v>
+        <v>1257.993073756288</v>
       </c>
       <c r="S4">
-        <v>0.1145652397273654</v>
+        <v>0.05673340924445883</v>
       </c>
       <c r="T4">
-        <v>0.1145652397273655</v>
+        <v>0.05673340924445882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J5">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.041396333333334</v>
+        <v>7.581522333333333</v>
       </c>
       <c r="N5">
-        <v>21.124189</v>
+        <v>22.744567</v>
       </c>
       <c r="O5">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="P5">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="Q5">
-        <v>873.2468028586819</v>
+        <v>940.2311452124898</v>
       </c>
       <c r="R5">
-        <v>7859.221225728137</v>
+        <v>8462.080306912409</v>
       </c>
       <c r="S5">
-        <v>0.282414117720941</v>
+        <v>0.3816258412918291</v>
       </c>
       <c r="T5">
-        <v>0.2824141177209411</v>
+        <v>0.3816258412918291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J6">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.618978</v>
       </c>
       <c r="O6">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="P6">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="Q6">
         <v>190.9426094878525</v>
@@ -818,10 +818,10 @@
         <v>1718.483485390672</v>
       </c>
       <c r="S6">
-        <v>0.06175217409020706</v>
+        <v>0.07750076601407493</v>
       </c>
       <c r="T6">
-        <v>0.06175217409020707</v>
+        <v>0.07750076601407493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J7">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.546594666666667</v>
+        <v>3.546594666666666</v>
       </c>
       <c r="N7">
         <v>10.639784</v>
       </c>
       <c r="O7">
-        <v>0.2924387304372314</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="P7">
-        <v>0.2924387304372315</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="Q7">
-        <v>439.8349854333796</v>
+        <v>439.8349854333795</v>
       </c>
       <c r="R7">
         <v>3958.514868900416</v>
       </c>
       <c r="S7">
-        <v>0.1422457075678212</v>
+        <v>0.1785224805626479</v>
       </c>
       <c r="T7">
-        <v>0.1422457075678212</v>
+        <v>0.1785224805626479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.041396333333334</v>
+        <v>7.581522333333333</v>
       </c>
       <c r="N8">
-        <v>21.124189</v>
+        <v>22.744567</v>
       </c>
       <c r="O8">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="P8">
-        <v>0.5806068067430814</v>
+        <v>0.5984888060727522</v>
       </c>
       <c r="Q8">
-        <v>218.7190619224786</v>
+        <v>235.4963950603245</v>
       </c>
       <c r="R8">
-        <v>1968.471557302307</v>
+        <v>2119.467555542921</v>
       </c>
       <c r="S8">
-        <v>0.07073527289121359</v>
+        <v>0.09558448509571398</v>
       </c>
       <c r="T8">
-        <v>0.07073527289121362</v>
+        <v>0.09558448509571398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.618978</v>
       </c>
       <c r="O9">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="P9">
-        <v>0.1269544628196872</v>
+        <v>0.1215414049648124</v>
       </c>
       <c r="Q9">
         <v>47.8247252569349</v>
@@ -1004,10 +1004,10 @@
         <v>430.422527312414</v>
       </c>
       <c r="S9">
-        <v>0.01546685031593459</v>
+        <v>0.01941134486308008</v>
       </c>
       <c r="T9">
-        <v>0.01546685031593459</v>
+        <v>0.01941134486308008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.546594666666667</v>
+        <v>3.546594666666666</v>
       </c>
       <c r="N10">
         <v>10.639784</v>
       </c>
       <c r="O10">
-        <v>0.2924387304372314</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="P10">
-        <v>0.2924387304372315</v>
+        <v>0.2799697889624354</v>
       </c>
       <c r="Q10">
         <v>110.1639251351991</v>
       </c>
       <c r="R10">
-        <v>991.4753262167922</v>
+        <v>991.4753262167919</v>
       </c>
       <c r="S10">
-        <v>0.0356277831420448</v>
+        <v>0.04471389915532865</v>
       </c>
       <c r="T10">
-        <v>0.03562778314204481</v>
+        <v>0.04471389915532865</v>
       </c>
     </row>
   </sheetData>
